--- a/stat-sheets/spreadsheet/Playoff-dan.xlsx
+++ b/stat-sheets/spreadsheet/Playoff-dan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epic-l008/Documents/fantasy/nflfantasy/stat-sheets/spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A912086D-23DF-9948-B0DC-B3B6AD00E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB65C40-C420-3D46-A529-D20686B4C5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="31620" windowHeight="17440" xr2:uid="{E010FACA-8BD4-B544-9EB5-09EBD29B9C48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="54">
   <si>
     <t xml:space="preserve">Dans playoff chances </t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>Has to lose to Dan, the rest don't really matter</t>
+  </si>
+  <si>
+    <t>real week 11 results</t>
+  </si>
+  <si>
+    <t>`7-4</t>
+  </si>
+  <si>
+    <t>`5-6</t>
+  </si>
+  <si>
+    <t>`2-9</t>
+  </si>
+  <si>
+    <t>Hugo, Dylan both past 7 wins already</t>
+  </si>
+  <si>
+    <t>Ati and Arley play each other so one of them need to get to 7</t>
+  </si>
+  <si>
+    <t>leaves 4 people dan can beat</t>
+  </si>
+  <si>
+    <t>wins</t>
   </si>
 </sst>
 </file>
@@ -234,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -243,7 +267,6 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,8 +275,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF0B18"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -564,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68E8FF6-9BE9-554E-8D91-8A5D3862EA43}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J49" sqref="J43:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,7 +727,7 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
@@ -736,7 +759,7 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="H6" t="s">
@@ -753,13 +776,13 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -779,7 +802,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -788,10 +811,10 @@
       <c r="D8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>4</v>
       </c>
       <c r="H8" t="s">
@@ -814,7 +837,7 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1015,7 +1038,7 @@
       <c r="F19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" t="s">
         <v>10</v>
       </c>
       <c r="O19" t="s">
@@ -1041,7 +1064,7 @@
       <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" t="s">
         <v>33</v>
       </c>
       <c r="O20" t="s">
@@ -1139,7 +1162,7 @@
       <c r="F24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1225,7 +1248,7 @@
       <c r="F30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1248,7 +1271,7 @@
       <c r="F31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1271,7 +1294,7 @@
       <c r="F32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1294,7 +1317,7 @@
       <c r="F33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1317,7 +1340,7 @@
       <c r="F34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1340,7 +1363,7 @@
       <c r="F35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1426,7 +1449,7 @@
       <c r="F42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1449,7 +1472,7 @@
       <c r="F43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1472,7 +1495,7 @@
       <c r="F44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1489,13 +1512,13 @@
       <c r="D45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="E45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1518,7 +1541,7 @@
       <c r="F46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1541,8 +1564,280 @@
       <c r="F47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>11</v>
+      </c>
+      <c r="K52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/stat-sheets/spreadsheet/Playoff-dan.xlsx
+++ b/stat-sheets/spreadsheet/Playoff-dan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epic-l008/Documents/fantasy/nflfantasy/stat-sheets/spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB65C40-C420-3D46-A529-D20686B4C5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12554F72-1B74-0C4B-B7F5-A67622A0E369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="31620" windowHeight="17440" xr2:uid="{E010FACA-8BD4-B544-9EB5-09EBD29B9C48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="63">
   <si>
     <t xml:space="preserve">Dans playoff chances </t>
   </si>
@@ -198,6 +198,33 @@
   </si>
   <si>
     <t>wins</t>
+  </si>
+  <si>
+    <t>real week 13</t>
+  </si>
+  <si>
+    <t>`8-4</t>
+  </si>
+  <si>
+    <t>`6-6</t>
+  </si>
+  <si>
+    <t>`6-7</t>
+  </si>
+  <si>
+    <t>`5-7</t>
+  </si>
+  <si>
+    <t>`3-9</t>
+  </si>
+  <si>
+    <t>`8-5</t>
+  </si>
+  <si>
+    <t>`7-6</t>
+  </si>
+  <si>
+    <t>`4-9</t>
   </si>
 </sst>
 </file>
@@ -220,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +272,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -258,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -267,6 +300,7 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,8 +309,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0B18"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FFFF0B18"/>
     </mruColors>
   </colors>
   <extLst>
@@ -587,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68E8FF6-9BE9-554E-8D91-8A5D3862EA43}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J49" sqref="J43:J49"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1705,7 +1739,7 @@
       <c r="C56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -1769,7 +1803,7 @@
       <c r="E58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" t="s">
         <v>4</v>
       </c>
       <c r="H58" t="s">
@@ -1795,7 +1829,7 @@
       <c r="D59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -1838,6 +1872,273 @@
       </c>
       <c r="J60">
         <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>11</v>
+      </c>
+      <c r="J63">
+        <v>12</v>
+      </c>
+      <c r="K63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" t="s">
+        <v>55</v>
+      </c>
+      <c r="K64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>47</v>
+      </c>
+      <c r="J65" t="s">
+        <v>55</v>
+      </c>
+      <c r="K65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" t="s">
+        <v>56</v>
+      </c>
+      <c r="K66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" t="s">
+        <v>56</v>
+      </c>
+      <c r="K68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" t="s">
+        <v>58</v>
+      </c>
+      <c r="K69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
